--- a/Incentive_COM/result/Vũ Thị Phương Thảo.xlsx
+++ b/Incentive_COM/result/Vũ Thị Phương Thảo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="103">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -77,18 +77,36 @@
     <t>Thiều Anh Thư</t>
   </si>
   <si>
+    <t>Hà Thị Thắm</t>
+  </si>
+  <si>
     <t>Đoàn Thị Mỹ Hằng</t>
   </si>
   <si>
+    <t>Đỗ Thị Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Trần Khánh Linh</t>
+  </si>
+  <si>
+    <t>Trần Thị Như Quỳnh</t>
+  </si>
+  <si>
     <t>P&amp;G</t>
   </si>
   <si>
-    <t>TH TRUE MART</t>
+    <t>PPD</t>
   </si>
   <si>
     <t>BROTHER</t>
   </si>
   <si>
+    <t>WIPRO UNZA</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
     <t>P&amp;G C2C - LAZADA</t>
   </si>
   <si>
@@ -98,22 +116,19 @@
     <t>P&amp;G OLAY - TIKI</t>
   </si>
   <si>
-    <t>P&amp;G PERSONALCARE - SENDO</t>
-  </si>
-  <si>
-    <t>P&amp;G FABRIC - SENDO</t>
-  </si>
-  <si>
-    <t>P&amp;G OLAY - SENDO</t>
-  </si>
-  <si>
-    <t>TH TRUE MART - SHOPEE</t>
-  </si>
-  <si>
-    <t>TH TRUE MART - LAZADA</t>
-  </si>
-  <si>
-    <t>TH TRUE MART - TIKI</t>
+    <t>P&amp;G FABRIC - TIKI</t>
+  </si>
+  <si>
+    <t>LDP-HANNAHKER</t>
+  </si>
+  <si>
+    <t>LOREALPRO VS HANNAHOLALA</t>
+  </si>
+  <si>
+    <t>HANNAH X PPD - LANDING</t>
+  </si>
+  <si>
+    <t>P&amp;G HC - TIKI</t>
   </si>
   <si>
     <t>BROTHER - SHOPEE</t>
@@ -125,6 +140,51 @@
     <t>BROTHER - LAZADA</t>
   </si>
   <si>
+    <t>AIKEN - LAZADA</t>
+  </si>
+  <si>
+    <t>ROMANO - LAZADA</t>
+  </si>
+  <si>
+    <t>DHC - LAZADA</t>
+  </si>
+  <si>
+    <t>BIO ESSENCE - LAZADA</t>
+  </si>
+  <si>
+    <t>ENCHANTEUR - LAZADA</t>
+  </si>
+  <si>
+    <t>GERVENNE - LAZADA</t>
+  </si>
+  <si>
+    <t>BIO ESSENCE - TIKI</t>
+  </si>
+  <si>
+    <t>ENCHANTEUR - TIKI</t>
+  </si>
+  <si>
+    <t>CARRIE JUNIOR - LAZADA</t>
+  </si>
+  <si>
+    <t>MAXKLEEN - LAZADA</t>
+  </si>
+  <si>
+    <t>CARRIE JUNIOR - TIKI</t>
+  </si>
+  <si>
+    <t>AIKEN - TIKI</t>
+  </si>
+  <si>
+    <t>GERVENNE - TIKI</t>
+  </si>
+  <si>
+    <t>MAXKLEEN - TIKI</t>
+  </si>
+  <si>
+    <t>ROMANO - TIKI</t>
+  </si>
+  <si>
     <t>B2C</t>
   </si>
   <si>
@@ -134,70 +194,121 @@
     <t>Vũ Thị Phương Thảo</t>
   </si>
   <si>
+    <t>Lê Chiến Thắng</t>
+  </si>
+  <si>
     <t>Trần Tiến Đức</t>
   </si>
   <si>
+    <t>Nguyễn An Minh Thái</t>
+  </si>
+  <si>
+    <t>Trần Minh Duy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trần Thị Tường Vân </t>
   </si>
   <si>
     <t>0.00%</t>
   </si>
   <si>
-    <t>84.06%</t>
-  </si>
-  <si>
-    <t>94.42%</t>
-  </si>
-  <si>
-    <t>74.27%</t>
-  </si>
-  <si>
-    <t>135.48%</t>
-  </si>
-  <si>
-    <t>300.00%</t>
-  </si>
-  <si>
-    <t>19.35%</t>
-  </si>
-  <si>
-    <t>84.11%</t>
-  </si>
-  <si>
-    <t>48.81%</t>
-  </si>
-  <si>
-    <t>122.28%</t>
-  </si>
-  <si>
-    <t>30.82%</t>
-  </si>
-  <si>
-    <t>119.05%</t>
-  </si>
-  <si>
-    <t>92.33%</t>
-  </si>
-  <si>
-    <t>45.51%</t>
-  </si>
-  <si>
-    <t>68.97%</t>
-  </si>
-  <si>
-    <t>68.30%</t>
-  </si>
-  <si>
-    <t>153.99%</t>
-  </si>
-  <si>
-    <t>6154.50%</t>
-  </si>
-  <si>
-    <t>432.98%</t>
-  </si>
-  <si>
-    <t>845.63%</t>
+    <t>107.79%</t>
+  </si>
+  <si>
+    <t>24.83%</t>
+  </si>
+  <si>
+    <t>19.12%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>15.48%</t>
+  </si>
+  <si>
+    <t>68.42%</t>
+  </si>
+  <si>
+    <t>37.36%</t>
+  </si>
+  <si>
+    <t>36.53%</t>
+  </si>
+  <si>
+    <t>4.49%</t>
+  </si>
+  <si>
+    <t>89.13%</t>
+  </si>
+  <si>
+    <t>74.85%</t>
+  </si>
+  <si>
+    <t>65.56%</t>
+  </si>
+  <si>
+    <t>15.92%</t>
+  </si>
+  <si>
+    <t>139.96%</t>
+  </si>
+  <si>
+    <t>20.64%</t>
+  </si>
+  <si>
+    <t>32.97%</t>
+  </si>
+  <si>
+    <t>87.75%</t>
+  </si>
+  <si>
+    <t>74.73%</t>
+  </si>
+  <si>
+    <t>26.76%</t>
+  </si>
+  <si>
+    <t>57.22%</t>
+  </si>
+  <si>
+    <t>54.01%</t>
+  </si>
+  <si>
+    <t>24.80%</t>
+  </si>
+  <si>
+    <t>2.74%</t>
+  </si>
+  <si>
+    <t>26.95%</t>
+  </si>
+  <si>
+    <t>9.51%</t>
+  </si>
+  <si>
+    <t>14.66%</t>
+  </si>
+  <si>
+    <t>15.60%</t>
+  </si>
+  <si>
+    <t>78.09%</t>
+  </si>
+  <si>
+    <t>77.66%</t>
+  </si>
+  <si>
+    <t>3.93%</t>
+  </si>
+  <si>
+    <t>657.55%</t>
+  </si>
+  <si>
+    <t>20.54%</t>
+  </si>
+  <si>
+    <t>82.98%</t>
   </si>
   <si>
     <t>Name</t>
@@ -206,13 +317,13 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>74.66%</t>
-  </si>
-  <si>
-    <t>74.55%</t>
-  </si>
-  <si>
-    <t>187.59%</t>
+    <t>74.07%</t>
+  </si>
+  <si>
+    <t>72.79%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
   </si>
 </sst>
 </file>
@@ -591,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,19 +772,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -682,16 +793,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2">
-        <v>370617</v>
+        <v>228523</v>
       </c>
       <c r="K2" s="2">
-        <v>440900</v>
+        <v>212000</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -700,98 +811,98 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P2" s="2">
-        <v>31502.445</v>
+        <v>21252.639</v>
       </c>
       <c r="Q2" s="2">
-        <v>37476.5</v>
+        <v>19716</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5098</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5399</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="2">
-        <v>433.33</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>458.915</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>57</v>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="3">
+        <v>228523</v>
+      </c>
+      <c r="K3" s="3">
+        <v>212000</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="3">
+        <v>21252.639</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>19716</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -800,16 +911,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2">
-        <v>3155</v>
+        <v>5090</v>
       </c>
       <c r="K4" s="2">
-        <v>4248</v>
+        <v>20500</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -818,39 +929,39 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P4" s="2">
-        <v>268.175</v>
+        <v>473.3700000000001</v>
       </c>
       <c r="Q4" s="2">
-        <v>361.08</v>
+        <v>1906.5</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -859,16 +970,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2">
-        <v>42</v>
+        <v>2964</v>
       </c>
       <c r="K5" s="2">
-        <v>31</v>
+        <v>15500</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -877,39 +988,39 @@
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P5" s="2">
-        <v>3.57</v>
+        <v>275.652</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.635</v>
+        <v>1441.5</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -918,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>31</v>
+        <v>29000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -936,39 +1047,39 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P6" s="2">
-        <v>7.905</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>2.635</v>
+        <v>2697</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -977,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2">
-        <v>6</v>
+        <v>1215</v>
       </c>
       <c r="K7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -995,78 +1106,78 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P7" s="2">
-        <v>0.51</v>
+        <v>117.855</v>
       </c>
       <c r="Q7" s="2">
-        <v>2.635</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="3">
-        <v>379011</v>
-      </c>
-      <c r="K8" s="3">
-        <v>450640</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="3">
-        <v>32215.935</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>38304.40000000001</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>57</v>
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="2">
+        <v>324</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="2">
+        <v>31.428</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1074,19 +1185,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1095,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J9" s="2">
-        <v>138091</v>
+        <v>326</v>
       </c>
       <c r="K9" s="2">
-        <v>282889</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1113,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P9" s="2">
-        <v>12013.917</v>
+        <v>31.622</v>
       </c>
       <c r="Q9" s="2">
-        <v>24611.343</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1133,19 +1244,19 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1154,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2">
-        <v>176844</v>
+        <v>143</v>
       </c>
       <c r="K10" s="2">
-        <v>144622</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1172,98 +1283,98 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P10" s="2">
-        <v>15385.428</v>
+        <v>13.299</v>
       </c>
       <c r="Q10" s="2">
-        <v>12582.114</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="2">
-        <v>26966</v>
-      </c>
-      <c r="K11" s="2">
-        <v>87489</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="2">
-        <v>2346.042</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>7611.543</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>58</v>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10062</v>
+      </c>
+      <c r="K11" s="3">
+        <v>65000</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3">
+        <v>943.2260000000001</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>6045.000000000001</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1272,16 +1383,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2">
-        <v>40918</v>
+        <v>10592</v>
       </c>
       <c r="K12" s="2">
-        <v>34370</v>
+        <v>15480</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -1290,39 +1401,39 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P12" s="2">
-        <v>2528.7324</v>
+        <v>752.0319999999999</v>
       </c>
       <c r="Q12" s="2">
-        <v>2124.066</v>
+        <v>1099.08</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1331,16 +1442,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2">
-        <v>13388</v>
+        <v>3752</v>
       </c>
       <c r="K13" s="2">
-        <v>14500</v>
+        <v>10042</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -1349,137 +1460,1199 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P13" s="2">
-        <v>827.3784000000001</v>
+        <v>266.392</v>
       </c>
       <c r="Q13" s="2">
-        <v>896.1</v>
+        <v>712.982</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6612</v>
+      </c>
+      <c r="K14" s="2">
+        <v>18100</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="2">
+        <v>469.4519999999999</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1285.1</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2">
+        <v>400</v>
+      </c>
+      <c r="K15" s="2">
+        <v>8916</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1132.332</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2">
+        <v>112128</v>
+      </c>
+      <c r="K16" s="2">
+        <v>125796</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="2">
+        <v>14240.256</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>15976.092</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="3">
+        <v>133484</v>
+      </c>
+      <c r="K17" s="3">
+        <v>178334</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="3">
+        <v>15778.932</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>20205.586</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2">
+        <v>55588</v>
+      </c>
+      <c r="K18" s="2">
+        <v>84787.99999999975</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3224.104</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4917.703999999986</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5613</v>
+      </c>
+      <c r="K19" s="2">
+        <v>35260</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="2">
+        <v>712.851</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>4478.02</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="2">
+        <v>74296</v>
+      </c>
+      <c r="K20" s="2">
+        <v>53082</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="2">
+        <v>9435.592000000001</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>6741.414</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2271</v>
+      </c>
+      <c r="K21" s="2">
+        <v>11002</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="2">
+        <v>288.417</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1397.254</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2">
+        <v>568</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="2">
+        <v>72.136</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>218.821</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3719</v>
+      </c>
+      <c r="K23" s="2">
+        <v>4238</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="2">
+        <v>472.313</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>538.226</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="3">
+        <v>142055</v>
+      </c>
+      <c r="K24" s="3">
+        <v>190092.9999999998</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="3">
+        <v>14205.413</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>18291.43899999999</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5501</v>
+      </c>
+      <c r="K25" s="2">
+        <v>20558</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="2">
+        <v>698.6270000000001</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2610.866</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="2">
+        <v>99897</v>
+      </c>
+      <c r="K26" s="2">
+        <v>174581</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="2">
+        <v>12686.919</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>22171.787</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="3">
+        <v>105398</v>
+      </c>
+      <c r="K27" s="3">
+        <v>195139</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="3">
+        <v>13385.546</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>24782.653</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="2">
+        <v>317</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1278</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="2">
+        <v>40.259</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>162.306</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="2">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="2">
-        <v>14189</v>
-      </c>
-      <c r="K14" s="2">
-        <v>31180</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="K29" s="2">
+        <v>1278</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="2">
+        <v>4.445</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>162.306</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1278</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>162.306</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="2">
-        <v>876.8802000000001</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1926.924</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1849</v>
+      </c>
+      <c r="K31" s="2">
+        <v>6862</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" s="2">
+        <v>234.823</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>871.474</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1166</v>
+      </c>
+      <c r="K32" s="2">
+        <v>12265</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" s="2">
+        <v>148.082</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1557.655</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="3">
-        <v>410396</v>
-      </c>
-      <c r="K15" s="3">
-        <v>595050</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="3">
-        <v>33978.378</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>49752.08999999999</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>60</v>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3367</v>
+      </c>
+      <c r="K33" s="3">
+        <v>22961</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" s="3">
+        <v>427.609</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>2916.047</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +2662,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1497,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1539,7 +2712,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1550,31 +2723,31 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>379011</v>
+        <v>228523</v>
       </c>
       <c r="F2" s="2">
-        <v>450640</v>
+        <v>212000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>32215.935</v>
+        <v>21252.639</v>
       </c>
       <c r="L2" s="2">
-        <v>38304.40000000001</v>
+        <v>19716</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1585,66 +2758,206 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>410396</v>
+        <v>10062</v>
       </c>
       <c r="F3" s="2">
-        <v>595050</v>
+        <v>65000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>33978.378</v>
+        <v>943.2260000000001</v>
       </c>
       <c r="L3" s="2">
-        <v>49752.08999999999</v>
+        <v>6045.000000000001</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>720912</v>
-      </c>
-      <c r="F4" s="4">
-        <v>965640</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>61961.322</v>
-      </c>
-      <c r="L4" s="4">
-        <v>83109.40000000001</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>133484</v>
+      </c>
+      <c r="F4" s="2">
+        <v>178334</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>15778.932</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20205.586</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>142055</v>
+      </c>
+      <c r="F5" s="2">
+        <v>190092.9999999998</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>14205.413</v>
+      </c>
+      <c r="L5" s="2">
+        <v>18291.43899999999</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>105398</v>
+      </c>
+      <c r="F6" s="2">
+        <v>195139</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>13385.546</v>
+      </c>
+      <c r="L6" s="2">
+        <v>24782.653</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>3367</v>
+      </c>
+      <c r="F7" s="2">
+        <v>22961</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>427.609</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2916.047</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>544480</v>
+      </c>
+      <c r="F8" s="4">
+        <v>735117</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>61100.48</v>
+      </c>
+      <c r="L8" s="4">
+        <v>83941.85899999998</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
